--- a/SP_Sklad/TempLate/RepMinMatRest.xlsx
+++ b/SP_Sklad/TempLate/RepMinMatRest.xlsx
@@ -16,7 +16,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -70,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="181" formatCode="mm"/>
-    <numFmt numFmtId="183" formatCode="0.0000"/>
-    <numFmt numFmtId="184" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="mm"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -485,10 +485,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,14 +500,8 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -549,16 +539,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -568,53 +555,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L108"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
@@ -1008,246 +995,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="64" t="e">
+      <c r="D3" s="15"/>
+      <c r="E3" s="52" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="35" t="e">
+      <c r="D4" s="7"/>
+      <c r="E4" s="31" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="35" t="e">
+      <c r="D5" s="7"/>
+      <c r="E5" s="31" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="55" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="45" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="59" t="e">
+      <c r="B10" s="55" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="57" t="e">
+      <c r="B11" s="58" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="46" t="e">
+      <c r="C11" s="59"/>
+      <c r="D11" s="41" t="e">
         <f>MatList_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="34" t="e">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="30" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="34" t="e">
+      <c r="I11" s="30" t="e">
         <f>MatList_MINRESERV</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="34" t="e">
+      <c r="J11" s="30" t="e">
         <f>MatList_REMAIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="42" t="e">
+      <c r="K11" s="38" t="e">
         <f>MatList_AVGPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="41" t="e">
+      <c r="L11" s="37" t="e">
         <f>J11*K11</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="44" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="39" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
@@ -1262,131 +1249,13 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="D7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="I7:I8"/>
@@ -1395,12 +1264,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="D7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
